--- a/Docs/Backend.xlsx
+++ b/Docs/Backend.xlsx
@@ -5,28 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devalladares\Documents\GitHub\Plataforma_Incidencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devalladares\Documents\GitHub\plataforma_cemacrise\plataforma_cemacrise\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122B7B06-0407-4C90-86BD-B3A80120D592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E78D8F7-2DE7-487F-99E4-9AB25BE584B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-150" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de datos" sheetId="1" r:id="rId1"/>
     <sheet name="Vistas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Incidencias</t>
   </si>
@@ -122,6 +131,18 @@
   </si>
   <si>
     <t>img</t>
+  </si>
+  <si>
+    <t>descrip_corta</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>cod_depto</t>
+  </si>
+  <si>
+    <t>fk depto</t>
   </si>
 </sst>
 </file>
@@ -178,12 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E16"/>
+  <dimension ref="B4:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,181 +592,239 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -759,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456C3117-BE92-4618-9CCC-42141018EB51}">
   <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
